--- a/Proyecto/DatosPola.xlsx
+++ b/Proyecto/DatosPola.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas\Desktop\Andes\Noveno Semestre\Simu\simu\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4DA19E-A48D-4F04-8174-423E335FA522}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509EBFC3-4B13-4492-BB6F-A383C66BC715}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{2374AF69-6A20-4D79-863B-A21D4A1B12FF}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{2374AF69-6A20-4D79-863B-A21D4A1B12FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -63,6 +63,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -119,15 +122,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="47" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="47" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="47" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,15 +447,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11F9E7F-B3FF-43E0-AD10-ABE6CE7A1E02}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickTop="1">
+    <row r="2" spans="1:10" ht="15.75" thickTop="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -490,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>2.614583333333333E-2</v>
+        <v>0.52614583333333331</v>
       </c>
       <c r="E2" s="5">
-        <v>2.6452546296296297E-2</v>
-      </c>
-      <c r="F2" s="6">
+        <v>0.52645833333333336</v>
+      </c>
+      <c r="F2" s="8">
         <v>0</v>
       </c>
       <c r="G2" s="5">
-        <v>2.7206018518518518E-2</v>
+        <v>0.52721064814814811</v>
       </c>
       <c r="H2" s="5">
         <v>0.52828703703703705</v>
@@ -507,8 +515,9 @@
       <c r="I2" s="1">
         <v>93.39</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -519,16 +528,16 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="D3" s="6">
-        <v>2.6469907407407411E-2</v>
+        <v>0.5264699074074074</v>
       </c>
       <c r="E3" s="6">
-        <v>2.7046296296296294E-2</v>
+        <v>0.52704861111111112</v>
       </c>
       <c r="F3" s="1">
         <v>50.8</v>
       </c>
       <c r="G3" s="6">
-        <v>2.7258101851851849E-2</v>
+        <v>0.52725694444444449</v>
       </c>
       <c r="H3" s="6">
         <v>0.52837881944444443</v>
@@ -537,7 +546,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -548,16 +557,16 @@
         <v>112.63</v>
       </c>
       <c r="D4" s="6">
-        <v>2.7076388888888889E-2</v>
+        <v>0.5270717592592592</v>
       </c>
       <c r="E4" s="6">
-        <v>2.7458333333333335E-2</v>
+        <v>0.5274537037037037</v>
       </c>
       <c r="F4" s="1">
         <v>33</v>
       </c>
       <c r="G4" s="6">
-        <v>2.7798611111111111E-2</v>
+        <v>0.52780092592592587</v>
       </c>
       <c r="H4" s="6">
         <v>0.52976689814814815</v>
@@ -566,7 +575,7 @@
         <v>170.07</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -577,16 +586,16 @@
         <v>1.26</v>
       </c>
       <c r="D5" s="6">
-        <v>2.7478009259259261E-2</v>
+        <v>0.52747685185185189</v>
       </c>
       <c r="E5" s="6">
-        <v>2.7640046296296298E-2</v>
+        <v>0.52763888888888888</v>
       </c>
       <c r="F5" s="1">
         <v>14.9</v>
       </c>
       <c r="G5" s="6">
-        <v>2.7866898148148148E-2</v>
+        <v>0.52787037037037032</v>
       </c>
       <c r="H5" s="6">
         <v>0.52977824074074076</v>
@@ -595,7 +604,7 @@
         <v>165.1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -606,16 +615,16 @@
         <v>21.66</v>
       </c>
       <c r="D6" s="6">
-        <v>2.7674768518518519E-2</v>
+        <v>0.52767361111111111</v>
       </c>
       <c r="E6" s="6">
-        <v>2.8342592592592589E-2</v>
+        <v>0.52834490740740747</v>
       </c>
       <c r="F6" s="1">
         <v>58.6</v>
       </c>
       <c r="G6" s="6">
-        <v>2.8596064814814817E-2</v>
+        <v>0.52859953703703699</v>
       </c>
       <c r="H6" s="6">
         <v>0.52978009259259262</v>
@@ -624,7 +633,7 @@
         <v>102.29</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -635,16 +644,16 @@
         <v>179.41</v>
       </c>
       <c r="D7" s="6">
-        <v>2.950115740740741E-2</v>
+        <v>0.5295023148148148</v>
       </c>
       <c r="E7" s="6">
-        <v>3.0366898148148146E-2</v>
+        <v>0.53037037037037038</v>
       </c>
       <c r="F7" s="1">
         <v>75.8</v>
       </c>
       <c r="G7" s="6">
-        <v>3.0410879629629628E-2</v>
+        <v>0.53040509259259261</v>
       </c>
       <c r="H7" s="6">
         <v>0.53138645833333331</v>
@@ -653,7 +662,7 @@
         <v>84.2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -664,16 +673,16 @@
         <v>116.25</v>
       </c>
       <c r="D8" s="6">
-        <v>3.0686342592592591E-2</v>
+        <v>0.53068287037037043</v>
       </c>
       <c r="E8" s="6">
-        <v>3.1152777777777779E-2</v>
+        <v>0.53115740740740736</v>
       </c>
       <c r="F8" s="1">
         <v>40.4</v>
       </c>
       <c r="G8" s="6">
-        <v>3.117361111111111E-2</v>
+        <v>0.53116898148148151</v>
       </c>
       <c r="H8" s="6">
         <v>0.5319666666666667</v>
@@ -682,7 +691,7 @@
         <v>69.52</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -693,16 +702,16 @@
         <v>77.42</v>
       </c>
       <c r="D9" s="6">
-        <v>3.1607638888888893E-2</v>
+        <v>0.53160879629629632</v>
       </c>
       <c r="E9" s="6">
-        <v>3.2278935185185188E-2</v>
+        <v>0.53228009259259257</v>
       </c>
       <c r="F9" s="1">
         <v>58</v>
       </c>
       <c r="G9" s="6">
-        <v>3.232060185185185E-2</v>
+        <v>0.53232638888888884</v>
       </c>
       <c r="H9" s="6">
         <v>0.53330289351851856</v>
@@ -711,7 +720,7 @@
         <v>85.9</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -722,16 +731,16 @@
         <v>25.93</v>
       </c>
       <c r="D10" s="6">
-        <v>3.2296296296296295E-2</v>
+        <v>0.53229166666666672</v>
       </c>
       <c r="E10" s="6">
-        <v>3.2949074074074075E-2</v>
+        <v>0.53295138888888893</v>
       </c>
       <c r="F10" s="1">
         <v>56</v>
       </c>
       <c r="G10" s="6">
-        <v>3.2997685185185185E-2</v>
+        <v>0.5329976851851852</v>
       </c>
       <c r="H10" s="6">
         <v>0.53506446759259252</v>
@@ -740,7 +749,7 @@
         <v>179.55</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -751,16 +760,16 @@
         <v>351.08</v>
       </c>
       <c r="D11" s="6">
-        <v>3.5975694444444442E-2</v>
+        <v>0.53597222222222218</v>
       </c>
       <c r="E11" s="6">
-        <v>3.656134259259259E-2</v>
+        <v>0.53656249999999994</v>
       </c>
       <c r="F11" s="1">
         <v>51.6</v>
       </c>
       <c r="G11" s="6">
-        <v>3.6607638888888891E-2</v>
+        <v>0.53660879629629632</v>
       </c>
       <c r="H11" s="6">
         <v>0.53743877314814814</v>
@@ -769,7 +778,7 @@
         <v>72.819999999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -780,16 +789,16 @@
         <v>5.19</v>
       </c>
       <c r="D12" s="6">
-        <v>3.6582175925925928E-2</v>
-      </c>
-      <c r="E12" s="7">
-        <v>3.7350694444444443E-2</v>
+        <v>0.53658564814814813</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.53734953703703703</v>
       </c>
       <c r="F12" s="1">
         <v>66.400000000000006</v>
       </c>
-      <c r="G12" s="7">
-        <v>3.7384259259259263E-2</v>
+      <c r="G12" s="9">
+        <v>0.53738425925925926</v>
       </c>
       <c r="H12" s="6">
         <v>0.53874131944444448</v>
@@ -798,7 +807,7 @@
         <v>117.2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -809,16 +818,16 @@
         <v>106.65</v>
       </c>
       <c r="D13" s="6">
-        <v>3.7545138888888892E-2</v>
-      </c>
-      <c r="E13" s="7">
-        <v>3.7880787037037032E-2</v>
+        <v>0.53754629629629636</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.53788194444444437</v>
       </c>
       <c r="F13" s="1">
         <v>29.9</v>
       </c>
-      <c r="G13" s="7">
-        <v>3.8004629629629631E-2</v>
+      <c r="G13" s="9">
+        <v>0.53800925925925924</v>
       </c>
       <c r="H13" s="6">
         <v>0.53890023148148147</v>
@@ -827,7 +836,7 @@
         <v>77.42</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -838,16 +847,16 @@
         <v>11.4</v>
       </c>
       <c r="D14" s="6">
-        <v>3.7940972222222223E-2</v>
-      </c>
-      <c r="E14" s="7">
-        <v>3.8557870370370374E-2</v>
+        <v>0.53793981481481479</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.53855324074074074</v>
       </c>
       <c r="F14" s="1">
         <v>53.3</v>
       </c>
-      <c r="G14" s="7">
-        <v>3.8657407407407404E-2</v>
+      <c r="G14" s="9">
+        <v>0.53865740740740742</v>
       </c>
       <c r="H14" s="6">
         <v>0.53965659722222226</v>
@@ -856,7 +865,7 @@
         <v>86.33</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -867,16 +876,16 @@
         <v>346.37</v>
       </c>
       <c r="D15" s="6">
-        <v>4.1346064814814815E-2</v>
-      </c>
-      <c r="E15" s="7">
-        <v>5.2662037037037033E-4</v>
+        <v>0.54134259259259265</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.54219907407407408</v>
       </c>
       <c r="F15" s="1">
         <v>73.2</v>
       </c>
-      <c r="G15" s="7">
-        <v>6.3888888888888893E-4</v>
+      <c r="G15" s="9">
+        <v>4.2303240740740738E-2</v>
       </c>
       <c r="H15" s="6">
         <v>0.54377361111111111</v>
@@ -885,7 +894,7 @@
         <v>127.88</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -896,16 +905,16 @@
         <v>252.63</v>
       </c>
       <c r="D16" s="6">
-        <v>3.2141203703703707E-3</v>
-      </c>
-      <c r="E16" s="7">
-        <v>3.894675925925926E-3</v>
+        <v>0.54488425925925921</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.54556712962962961</v>
       </c>
       <c r="F16" s="1">
         <v>59</v>
       </c>
-      <c r="G16" s="7">
-        <v>3.9351851851851857E-3</v>
+      <c r="G16" s="9">
+        <v>4.5601851851851859E-2</v>
       </c>
       <c r="H16" s="6">
         <v>0.54706018518518518</v>
@@ -925,16 +934,16 @@
         <v>149.71</v>
       </c>
       <c r="D17" s="6">
-        <v>4.4166666666666668E-3</v>
-      </c>
-      <c r="E17" s="7">
-        <v>5.3159722222222219E-3</v>
+        <v>0.54608796296296302</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.54697916666666668</v>
       </c>
       <c r="F17" s="1">
         <v>78</v>
       </c>
-      <c r="G17" s="7">
-        <v>5.3796296296296292E-3</v>
+      <c r="G17" s="9">
+        <v>4.704861111111111E-2</v>
       </c>
       <c r="H17" s="6">
         <v>0.54878032407407407</v>
@@ -954,16 +963,16 @@
         <v>0.75</v>
       </c>
       <c r="D18" s="6">
-        <v>5.3240740740740748E-3</v>
+        <v>0.54699074074074072</v>
       </c>
       <c r="E18" s="6">
-        <v>5.4375000000000005E-3</v>
+        <v>0.54710648148148155</v>
       </c>
       <c r="F18" s="1">
         <v>10.7</v>
       </c>
       <c r="G18" s="6">
-        <v>5.4641203703703701E-3</v>
+        <v>4.7129629629629632E-2</v>
       </c>
       <c r="H18" s="6">
         <v>0.55005127314814817</v>
@@ -983,16 +992,16 @@
         <v>76.790000000000006</v>
       </c>
       <c r="D19" s="6">
-        <v>5.4467592592592597E-3</v>
+        <v>0.54711805555555559</v>
       </c>
       <c r="E19" s="6">
-        <v>5.9502314814814808E-3</v>
+        <v>0.54761574074074071</v>
       </c>
       <c r="F19" s="1">
         <v>44.5</v>
       </c>
       <c r="G19" s="6">
-        <v>6.4259259259259261E-3</v>
+        <v>4.809027777777778E-2</v>
       </c>
       <c r="H19" s="6">
         <v>0.55109548611111114</v>
@@ -1012,16 +1021,16 @@
         <v>104.33</v>
       </c>
       <c r="D20" s="6">
-        <v>6.5763888888888894E-3</v>
+        <v>0.5482407407407407</v>
       </c>
       <c r="E20" s="6">
-        <v>7.0590277777777778E-3</v>
+        <v>0.54872685185185188</v>
       </c>
       <c r="F20" s="1">
         <v>42.7</v>
       </c>
       <c r="G20" s="6">
-        <v>7.1342592592592595E-3</v>
+        <v>4.8796296296296303E-2</v>
       </c>
       <c r="H20" s="6">
         <v>0.5517202546296297</v>
@@ -1041,16 +1050,16 @@
         <v>236.55</v>
       </c>
       <c r="D21" s="6">
-        <v>9.3888888888888893E-3</v>
+        <v>0.5510532407407408</v>
       </c>
       <c r="E21" s="6">
-        <v>1.0240740740740739E-2</v>
+        <v>0.55190972222222223</v>
       </c>
       <c r="F21" s="1">
         <v>74.599999999999994</v>
       </c>
       <c r="G21" s="6">
-        <v>1.0289351851851852E-2</v>
+        <v>5.1956018518518519E-2</v>
       </c>
       <c r="H21" s="6">
         <v>0.55323437500000006</v>
@@ -1061,5 +1070,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>